--- a/misc/OAEIAnalaysis.xlsx
+++ b/misc/OAEIAnalaysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OAEI2011" sheetId="5" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Conference Only" sheetId="6" r:id="rId6"/>
     <sheet name="Anatomy Only" sheetId="7" r:id="rId7"/>
     <sheet name="Biblio Only" sheetId="8" r:id="rId8"/>
+    <sheet name="Coding of those systems" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Anatomy Only'!$B$4:$N$38</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="97">
   <si>
     <t>Participating Systems</t>
   </si>
@@ -299,6 +300,30 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Last Year Participation</t>
+  </si>
+  <si>
+    <t>Coding available?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Agreementmakerlight</t>
+  </si>
+  <si>
+    <t>https://github.com/AgreementMakerLight/AML-Project/tree/master/AgreementMakerLight</t>
+  </si>
+  <si>
+    <t>Gomma</t>
   </si>
 </sst>
 </file>
@@ -2427,11 +2452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2112080008"/>
-        <c:axId val="-2112019976"/>
+        <c:axId val="-2131939096"/>
+        <c:axId val="-2131454248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2112080008"/>
+        <c:axId val="-2131939096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2440,7 +2465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112019976"/>
+        <c:crossAx val="-2131454248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2448,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112019976"/>
+        <c:axId val="-2131454248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,14 +2484,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112080008"/>
+        <c:crossAx val="-2131939096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3060,11 +3084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132326280"/>
-        <c:axId val="-2132436168"/>
+        <c:axId val="-2113841144"/>
+        <c:axId val="-2113838168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132326280"/>
+        <c:axId val="-2113841144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3073,7 +3097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132436168"/>
+        <c:crossAx val="-2113838168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3081,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132436168"/>
+        <c:axId val="-2113838168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3092,7 +3116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132326280"/>
+        <c:crossAx val="-2113841144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3468,11 +3492,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132001720"/>
-        <c:axId val="-2136839496"/>
+        <c:axId val="-2113803944"/>
+        <c:axId val="-2113800968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132001720"/>
+        <c:axId val="-2113803944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3481,7 +3505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136839496"/>
+        <c:crossAx val="-2113800968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3489,7 +3513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136839496"/>
+        <c:axId val="-2113800968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3500,7 +3524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132001720"/>
+        <c:crossAx val="-2113803944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,11 +3738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113405464"/>
-        <c:axId val="-2113355160"/>
+        <c:axId val="-2113757976"/>
+        <c:axId val="-2113755032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113405464"/>
+        <c:axId val="-2113757976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3727,7 +3751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113355160"/>
+        <c:crossAx val="-2113755032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3735,7 +3759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113355160"/>
+        <c:axId val="-2113755032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3746,7 +3770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113405464"/>
+        <c:crossAx val="-2113757976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4383,11 +4407,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2125092216"/>
-        <c:axId val="-2127334136"/>
+        <c:axId val="-2113715048"/>
+        <c:axId val="-2113712072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2125092216"/>
+        <c:axId val="-2113715048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4396,7 +4420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127334136"/>
+        <c:crossAx val="-2113712072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4404,7 +4428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127334136"/>
+        <c:axId val="-2113712072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,7 +4439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125092216"/>
+        <c:crossAx val="-2113715048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5061,11 +5085,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2126151928"/>
-        <c:axId val="-2125686136"/>
+        <c:axId val="-2113675736"/>
+        <c:axId val="-2113672760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126151928"/>
+        <c:axId val="-2113675736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5074,7 +5098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125686136"/>
+        <c:crossAx val="-2113672760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5082,7 +5106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2125686136"/>
+        <c:axId val="-2113672760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5093,7 +5117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126151928"/>
+        <c:crossAx val="-2113675736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5595,11 +5619,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2135901176"/>
-        <c:axId val="-2113359304"/>
+        <c:axId val="-2113637352"/>
+        <c:axId val="-2113634376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135901176"/>
+        <c:axId val="-2113637352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5608,7 +5632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113359304"/>
+        <c:crossAx val="-2113634376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5616,7 +5640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113359304"/>
+        <c:axId val="-2113634376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,7 +5651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135901176"/>
+        <c:crossAx val="-2113637352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5686,9 +5710,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5725,9 +5749,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5764,9 +5788,9 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5796,11 +5820,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142095064"/>
-        <c:axId val="-2126666728"/>
+        <c:axId val="-2131379016"/>
+        <c:axId val="-2131376040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142095064"/>
+        <c:axId val="-2131379016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5809,7 +5833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126666728"/>
+        <c:crossAx val="-2131376040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5817,7 +5841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2126666728"/>
+        <c:axId val="-2131376040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5828,14 +5852,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142095064"/>
+        <c:crossAx val="-2131379016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6033,11 +6056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2110946392"/>
-        <c:axId val="-2110944984"/>
+        <c:axId val="-2131344184"/>
+        <c:axId val="-2131341208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2110946392"/>
+        <c:axId val="-2131344184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,7 +6069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110944984"/>
+        <c:crossAx val="-2131341208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6054,7 +6077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110944984"/>
+        <c:axId val="-2131341208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,14 +6088,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110946392"/>
+        <c:crossAx val="-2131344184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6702,11 +6724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2135267320"/>
-        <c:axId val="-2138164456"/>
+        <c:axId val="-2131291832"/>
+        <c:axId val="-2131288856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135267320"/>
+        <c:axId val="-2131291832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6715,7 +6737,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138164456"/>
+        <c:crossAx val="-2131288856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6723,7 +6745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138164456"/>
+        <c:axId val="-2131288856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6734,14 +6756,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135267320"/>
+        <c:crossAx val="-2131291832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7407,11 +7428,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2139885928"/>
-        <c:axId val="-2139654328"/>
+        <c:axId val="-2131898072"/>
+        <c:axId val="-2131895096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139885928"/>
+        <c:axId val="-2131898072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7420,7 +7441,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139654328"/>
+        <c:crossAx val="-2131895096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7428,7 +7449,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139654328"/>
+        <c:axId val="-2131895096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7439,14 +7460,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139885928"/>
+        <c:crossAx val="-2131898072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8139,11 +8159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2138111400"/>
-        <c:axId val="-2138097752"/>
+        <c:axId val="-2131858104"/>
+        <c:axId val="-2131855128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2138111400"/>
+        <c:axId val="-2131858104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8152,7 +8172,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138097752"/>
+        <c:crossAx val="-2131855128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8160,7 +8180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138097752"/>
+        <c:axId val="-2131855128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8171,14 +8191,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138111400"/>
+        <c:crossAx val="-2131858104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8763,11 +8782,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2133023480"/>
-        <c:axId val="-2133172744"/>
+        <c:axId val="-2131817336"/>
+        <c:axId val="-2131814360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2133023480"/>
+        <c:axId val="-2131817336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8776,7 +8795,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133172744"/>
+        <c:crossAx val="-2131814360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8784,7 +8803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133172744"/>
+        <c:axId val="-2131814360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8795,14 +8814,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133023480"/>
+        <c:crossAx val="-2131817336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9036,11 +9054,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2135207848"/>
-        <c:axId val="-2141583976"/>
+        <c:axId val="-2132767224"/>
+        <c:axId val="-2132770216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2135207848"/>
+        <c:axId val="-2132767224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9049,7 +9067,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141583976"/>
+        <c:crossAx val="-2132770216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9057,7 +9075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141583976"/>
+        <c:axId val="-2132770216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,14 +9086,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135207848"/>
+        <c:crossAx val="-2132767224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9606,11 +9623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141518920"/>
-        <c:axId val="-2141390968"/>
+        <c:axId val="-2113881240"/>
+        <c:axId val="-2113878264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141518920"/>
+        <c:axId val="-2113881240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9619,7 +9636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141390968"/>
+        <c:crossAx val="-2113878264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9627,7 +9644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141390968"/>
+        <c:axId val="-2113878264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9638,7 +9655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141518920"/>
+        <c:crossAx val="-2113881240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11479,10 +11496,10 @@
   <dimension ref="B1:W49"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:N22"/>
+      <selection pane="bottomRight" activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12701,7 +12718,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17883,7 +17900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -19094,4 +19111,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>2013</v>
+      </c>
+      <c r="E4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5">
+        <v>2014</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/misc/OAEIAnalaysis.xlsx
+++ b/misc/OAEIAnalaysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="15460" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="500" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OAEI2011" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="105">
   <si>
     <t>Participating Systems</t>
   </si>
@@ -324,6 +324,30 @@
   </si>
   <si>
     <t>Gomma</t>
+  </si>
+  <si>
+    <t>Cider</t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/logmap-matcher/</t>
+  </si>
+  <si>
+    <t>http://thinc.cs.uga.edu/thinclabwiki/index.php/Automated_Alignment_of_Ontologies</t>
+  </si>
+  <si>
+    <t>yes (via e-mail)</t>
+  </si>
+  <si>
+    <t>http://dbs.uni-leipzig.de/GOMMA</t>
+  </si>
+  <si>
+    <t>A system can be downloaded from the http://www.seals-project.eu (tool identifier: e0fe95d5-943e-4652-bc53-5b36b712c9cb, version: 1.0).</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>http://sid.cps.unizar.es/SEMANTICWEB/ALIGNMENT/</t>
   </si>
 </sst>
 </file>
@@ -19115,10 +19139,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F8"/>
+  <dimension ref="C3:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19172,15 +19196,80 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>2013</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="3:6">
       <c r="C7" t="s">
         <v>55</v>
       </c>
+      <c r="D7">
+        <v>2011</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="3:6">
       <c r="C8" t="s">
         <v>96</v>
+      </c>
+      <c r="D8">
+        <v>2012</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/misc/OAEIAnalaysis.xlsx
+++ b/misc/OAEIAnalaysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="22240" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OAEI2011" sheetId="5" r:id="rId1"/>
@@ -2351,12 +2351,48 @@
             <c:strRef>
               <c:f>'Library Only'!$B$8:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>LogMapLt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MaasMatch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MapSSS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ServOMapLt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,12 +2402,39 @@
               <c:f>'Library Only'!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
+                  <c:v>0.107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.645</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.688</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.577</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.321</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2396,12 +2459,48 @@
             <c:strRef>
               <c:f>'Library Only'!$B$8:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>LogMapLt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MaasMatch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MapSSS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ServOMapLt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2411,12 +2510,39 @@
               <c:f>'Library Only'!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
+                  <c:v>0.652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.575</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.644</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,12 +2567,48 @@
             <c:strRef>
               <c:f>'Library Only'!$B$8:$B$21</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>LogMapLt</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MaasMatch</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MapSSS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>ServOMapLt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2456,12 +2618,39 @@
               <c:f>'Library Only'!$E$5:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="1">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.456</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.608</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.665</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.662</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.272</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.117</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2476,11 +2665,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131939096"/>
-        <c:axId val="-2131454248"/>
+        <c:axId val="-2124992392"/>
+        <c:axId val="-2124989416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131939096"/>
+        <c:axId val="-2124992392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131454248"/>
+        <c:crossAx val="-2124989416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2497,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131454248"/>
+        <c:axId val="-2124989416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,13 +2697,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131939096"/>
+        <c:crossAx val="-2124992392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3108,11 +3298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113841144"/>
-        <c:axId val="-2113838168"/>
+        <c:axId val="-2124713768"/>
+        <c:axId val="-2124710792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113841144"/>
+        <c:axId val="-2124713768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3121,7 +3311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113838168"/>
+        <c:crossAx val="-2124710792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3129,7 +3319,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113838168"/>
+        <c:axId val="-2124710792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3140,7 +3330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113841144"/>
+        <c:crossAx val="-2124713768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,11 +3706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113803944"/>
-        <c:axId val="-2113800968"/>
+        <c:axId val="-2127027496"/>
+        <c:axId val="-2127024520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113803944"/>
+        <c:axId val="-2127027496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3529,7 +3719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113800968"/>
+        <c:crossAx val="-2127024520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3537,7 +3727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113800968"/>
+        <c:axId val="-2127024520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3548,7 +3738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113803944"/>
+        <c:crossAx val="-2127027496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3762,11 +3952,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113757976"/>
-        <c:axId val="-2113755032"/>
+        <c:axId val="-2124150344"/>
+        <c:axId val="-2124147400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113757976"/>
+        <c:axId val="-2124150344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3775,7 +3965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113755032"/>
+        <c:crossAx val="-2124147400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3783,7 +3973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113755032"/>
+        <c:axId val="-2124147400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113757976"/>
+        <c:crossAx val="-2124150344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4431,11 +4621,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113715048"/>
-        <c:axId val="-2113712072"/>
+        <c:axId val="-2124107464"/>
+        <c:axId val="-2124104488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113715048"/>
+        <c:axId val="-2124107464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +4634,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113712072"/>
+        <c:crossAx val="-2124104488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4452,7 +4642,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113712072"/>
+        <c:axId val="-2124104488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4463,7 +4653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113715048"/>
+        <c:crossAx val="-2124107464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5109,11 +5299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113675736"/>
-        <c:axId val="-2113672760"/>
+        <c:axId val="-2124068152"/>
+        <c:axId val="-2124065176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113675736"/>
+        <c:axId val="-2124068152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5312,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113672760"/>
+        <c:crossAx val="-2124065176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5130,7 +5320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113672760"/>
+        <c:axId val="-2124065176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,7 +5331,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113675736"/>
+        <c:crossAx val="-2124068152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5643,11 +5833,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113637352"/>
-        <c:axId val="-2113634376"/>
+        <c:axId val="-2124686216"/>
+        <c:axId val="-2124683240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113637352"/>
+        <c:axId val="-2124686216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5656,7 +5846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113634376"/>
+        <c:crossAx val="-2124683240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5664,7 +5854,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113634376"/>
+        <c:axId val="-2124683240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5675,7 +5865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113637352"/>
+        <c:crossAx val="-2124686216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5734,24 +5924,87 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ServOMapLt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>StringsAuto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WeSeEMtch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XMapGen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XMapSig</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YAM++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Library Only'!$F$5:$F$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.625</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0.522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.735</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.777</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>0.777</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.646</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.774</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.031</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.799</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5773,24 +6026,87 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ServOMapLt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>StringsAuto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WeSeEMtch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XMapGen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XMapSig</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YAM++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Library Only'!$G$5:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.877</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0.918</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.041</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.645</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.771</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.783</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5812,24 +6128,87 @@
           </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>'Library Only'!$B$17:$B$27</c:f>
-            </c:multiLvlStrRef>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>ODGOMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Optima</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RSDLWB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ServOMap</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ServOMapLt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>StringsAuto</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>WeSeEMtch</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>XMap</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>XMapGen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>XMapSig</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>YAM++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Library Only'!$H$5:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.73</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
+                  <c:v>0.666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.078</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.705</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
                   <c:v>0.703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.739</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.057</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.455</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5844,11 +6223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131379016"/>
-        <c:axId val="-2131376040"/>
+        <c:axId val="-2124957816"/>
+        <c:axId val="-2124954840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131379016"/>
+        <c:axId val="-2124957816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5857,7 +6236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131376040"/>
+        <c:crossAx val="-2124954840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5865,7 +6244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131376040"/>
+        <c:axId val="-2124954840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,13 +6255,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131379016"/>
+        <c:crossAx val="-2124957816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5937,14 +6317,35 @@
             <c:strRef>
               <c:f>'Library Only'!$B$5:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>AML</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>AROMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CODI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>LogMapLt</c:v>
                 </c:pt>
               </c:strCache>
@@ -5955,14 +6356,17 @@
               <c:f>'Library Only'!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.824</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.743</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.484</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.644</c:v>
                 </c:pt>
               </c:numCache>
@@ -5988,14 +6392,35 @@
             <c:strRef>
               <c:f>'Library Only'!$B$5:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>AML</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>AROMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CODI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>LogMapLt</c:v>
                 </c:pt>
               </c:strCache>
@@ -6006,14 +6431,17 @@
               <c:f>'Library Only'!$J$5:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.778</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.681</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.264</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.771</c:v>
                 </c:pt>
               </c:numCache>
@@ -6039,14 +6467,35 @@
             <c:strRef>
               <c:f>'Library Only'!$B$5:$B$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>AML</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>AROMA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CODI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GOMMA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Hertuda</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HotMatch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>IAMA</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>LogMap</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>LogMap-C</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>LogMapLt</c:v>
                 </c:pt>
               </c:strCache>
@@ -6057,14 +6506,17 @@
               <c:f>'Library Only'!$K$5:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.711</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
+                  <c:v>0.342</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.702</c:v>
                 </c:pt>
               </c:numCache>
@@ -6080,11 +6532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131344184"/>
-        <c:axId val="-2131341208"/>
+        <c:axId val="-2124922968"/>
+        <c:axId val="-2124919992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131344184"/>
+        <c:axId val="-2124922968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6093,7 +6545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131341208"/>
+        <c:crossAx val="-2124919992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6101,7 +6553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131341208"/>
+        <c:axId val="-2124919992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6112,13 +6564,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131344184"/>
+        <c:crossAx val="-2124922968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6748,11 +7201,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131291832"/>
-        <c:axId val="-2131288856"/>
+        <c:axId val="-2127045272"/>
+        <c:axId val="-2127042296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131291832"/>
+        <c:axId val="-2127045272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6761,7 +7214,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131288856"/>
+        <c:crossAx val="-2127042296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6769,7 +7222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131288856"/>
+        <c:axId val="-2127042296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,13 +7233,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131291832"/>
+        <c:crossAx val="-2127045272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7452,11 +7906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131898072"/>
-        <c:axId val="-2131895096"/>
+        <c:axId val="-2124893576"/>
+        <c:axId val="-2124890600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131898072"/>
+        <c:axId val="-2124893576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7465,7 +7919,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131895096"/>
+        <c:crossAx val="-2124890600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7473,7 +7927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131895096"/>
+        <c:axId val="-2124890600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7484,13 +7938,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131898072"/>
+        <c:crossAx val="-2124893576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8183,11 +8638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131858104"/>
-        <c:axId val="-2131855128"/>
+        <c:axId val="-2124853352"/>
+        <c:axId val="-2124850376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131858104"/>
+        <c:axId val="-2124853352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8196,7 +8651,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131855128"/>
+        <c:crossAx val="-2124850376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8204,7 +8659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131855128"/>
+        <c:axId val="-2124850376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8215,13 +8670,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131858104"/>
+        <c:crossAx val="-2124853352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8806,11 +9262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2131817336"/>
-        <c:axId val="-2131814360"/>
+        <c:axId val="-2124208152"/>
+        <c:axId val="-2124205176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2131817336"/>
+        <c:axId val="-2124208152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8819,7 +9275,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131814360"/>
+        <c:crossAx val="-2124205176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8827,7 +9283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131814360"/>
+        <c:axId val="-2124205176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8838,7 +9294,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131817336"/>
+        <c:crossAx val="-2124208152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9078,11 +9534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2132767224"/>
-        <c:axId val="-2132770216"/>
+        <c:axId val="-2124794264"/>
+        <c:axId val="-2124791288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2132767224"/>
+        <c:axId val="-2124794264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9091,7 +9547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132770216"/>
+        <c:crossAx val="-2124791288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9099,7 +9555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132770216"/>
+        <c:axId val="-2124791288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9110,13 +9566,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132767224"/>
+        <c:crossAx val="-2124794264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9647,11 +10104,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2113881240"/>
-        <c:axId val="-2113878264"/>
+        <c:axId val="-2124753688"/>
+        <c:axId val="-2124750712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2113881240"/>
+        <c:axId val="-2124753688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9660,7 +10117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113878264"/>
+        <c:crossAx val="-2124750712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9668,7 +10125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2113878264"/>
+        <c:axId val="-2124750712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9679,7 +10136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113881240"/>
+        <c:crossAx val="-2124753688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14843,11 +15300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14932,7 +15388,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="2:11" hidden="1">
+    <row r="6" spans="2:11">
       <c r="B6" s="88" t="s">
         <v>48</v>
       </c>
@@ -14952,7 +15408,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="23"/>
     </row>
-    <row r="7" spans="2:11" hidden="1">
+    <row r="7" spans="2:11">
       <c r="B7" s="88" t="s">
         <v>51</v>
       </c>
@@ -14972,7 +15428,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="23"/>
     </row>
-    <row r="8" spans="2:11" hidden="1">
+    <row r="8" spans="2:11">
       <c r="B8" s="161" t="s">
         <v>52</v>
       </c>
@@ -14992,7 +15448,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="2:11" hidden="1">
+    <row r="9" spans="2:11">
       <c r="B9" s="88" t="s">
         <v>29</v>
       </c>
@@ -15018,7 +15474,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="23"/>
     </row>
-    <row r="10" spans="2:11" hidden="1">
+    <row r="10" spans="2:11">
       <c r="B10" s="88" t="s">
         <v>30</v>
       </c>
@@ -15044,7 +15500,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="23"/>
     </row>
-    <row r="11" spans="2:11" hidden="1">
+    <row r="11" spans="2:11">
       <c r="B11" s="88" t="s">
         <v>31</v>
       </c>
@@ -15096,7 +15552,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:11" hidden="1">
+    <row r="13" spans="2:11">
       <c r="B13" s="88" t="s">
         <v>7</v>
       </c>
@@ -15148,7 +15604,7 @@
         <v>0.70199999999999996</v>
       </c>
     </row>
-    <row r="15" spans="2:11" hidden="1">
+    <row r="15" spans="2:11">
       <c r="B15" s="88" t="s">
         <v>10</v>
       </c>
@@ -15168,7 +15624,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="16" spans="2:11" hidden="1">
+    <row r="16" spans="2:11">
       <c r="B16" s="88" t="s">
         <v>33</v>
       </c>
@@ -15188,7 +15644,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="2:14" hidden="1">
+    <row r="17" spans="2:14">
       <c r="B17" s="88" t="s">
         <v>34</v>
       </c>
@@ -15208,7 +15664,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" spans="2:14" hidden="1">
+    <row r="18" spans="2:14">
       <c r="B18" s="88" t="s">
         <v>55</v>
       </c>
@@ -15228,7 +15684,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="2:14" hidden="1">
+    <row r="19" spans="2:14">
       <c r="B19" s="72" t="s">
         <v>13</v>
       </c>
@@ -15248,7 +15704,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:14" hidden="1">
+    <row r="20" spans="2:14">
       <c r="B20" s="88" t="s">
         <v>37</v>
       </c>
@@ -15274,7 +15730,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="2:14" hidden="1">
+    <row r="21" spans="2:14">
       <c r="B21" s="162" t="s">
         <v>56</v>
       </c>
@@ -15294,7 +15750,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="23"/>
     </row>
-    <row r="22" spans="2:14" hidden="1">
+    <row r="22" spans="2:14">
       <c r="B22" s="49" t="s">
         <v>38</v>
       </c>
@@ -15314,7 +15770,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="23"/>
     </row>
-    <row r="23" spans="2:14" hidden="1">
+    <row r="23" spans="2:14">
       <c r="B23" s="90" t="s">
         <v>58</v>
       </c>
@@ -15334,7 +15790,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="23"/>
     </row>
-    <row r="24" spans="2:14" hidden="1">
+    <row r="24" spans="2:14">
       <c r="B24" s="49" t="s">
         <v>14</v>
       </c>
@@ -15354,7 +15810,7 @@
         <v>0.64600000000000002</v>
       </c>
     </row>
-    <row r="25" spans="2:14" hidden="1">
+    <row r="25" spans="2:14">
       <c r="B25" s="49" t="s">
         <v>43</v>
       </c>
@@ -15374,7 +15830,7 @@
       <c r="J25" s="7"/>
       <c r="K25" s="23"/>
     </row>
-    <row r="26" spans="2:14" hidden="1">
+    <row r="26" spans="2:14">
       <c r="B26" s="49" t="s">
         <v>44</v>
       </c>
@@ -15394,7 +15850,7 @@
       <c r="J26" s="101"/>
       <c r="K26" s="102"/>
     </row>
-    <row r="27" spans="2:14" ht="16" hidden="1" thickBot="1">
+    <row r="27" spans="2:14" ht="16" thickBot="1">
       <c r="B27" s="91" t="s">
         <v>42</v>
       </c>
@@ -15536,11 +15992,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:K27">
-    <filterColumn colId="9">
-      <top10 val="3" filterVal="0.70199999999999996"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B4:K27"/>
   <sortState ref="B5:K30">
     <sortCondition ref="B5"/>
   </sortState>
@@ -15560,10 +16012,10 @@
   <dimension ref="B3:N108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B47" sqref="B47:N50"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16839,8 +17291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17924,7 +18376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N116"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -19141,8 +19593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
